--- a/static/file/Fin-statement-13.xlsx
+++ b/static/file/Fin-statement-13.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,11 +513,11 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>81.63%</t>
         </is>
       </c>
     </row>
@@ -528,11 +528,11 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>450000</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>18.37%</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2</v>
+        <v>2450000</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2</v>
+        <v>2450000</v>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>2</v>
+        <v>2450000</v>
       </c>
       <c r="C18" s="10" t="inlineStr"/>
     </row>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>2</v>
+        <v>2450000</v>
       </c>
       <c r="C19" s="10" t="inlineStr"/>
     </row>
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>525000</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>81.36%</t>
         </is>
       </c>
     </row>
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.04%</t>
         </is>
       </c>
     </row>
@@ -792,11 +792,11 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>18.60%</t>
         </is>
       </c>
     </row>
@@ -852,11 +852,11 @@
         </is>
       </c>
       <c r="B33" s="4" t="n">
-        <v>0</v>
+        <v>645257</v>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -870,48 +870,99 @@
       <c r="C34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>เบี้ยประกัน</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr"/>
-      <c r="C35" s="2" t="inlineStr"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>บัตรเครดิต</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>6300</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr">
         <is>
-          <t>กระแสเงินสดจ่ายผันแปร</t>
+          <t>เบี้ยประกัน</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>ประกันรถยนต์</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>กระแสเงินสดจ่ายผันแปร</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr"/>
+      <c r="C38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>ค่าอาหาร</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>13.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>กระแสเงินสดจ่ายรวม</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>กระแสเงินสดสุทธิ</t>
         </is>
       </c>
-      <c r="B38" s="10" t="n">
+      <c r="B41" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="10" t="inlineStr">
+      <c r="C41" s="10" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
